--- a/natmiOut/OldD4/LR-pairs_lrc2p/Sema4d-Erbb2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Sema4d-Erbb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Erbb2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.951627571548234</v>
+        <v>1.130078666666667</v>
       </c>
       <c r="H2">
-        <v>0.951627571548234</v>
+        <v>3.390236</v>
       </c>
       <c r="I2">
-        <v>0.009362698460394505</v>
+        <v>0.009293988592650694</v>
       </c>
       <c r="J2">
-        <v>0.009362698460394505</v>
+        <v>0.009350747007447273</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.47254733739241</v>
+        <v>2.517755</v>
       </c>
       <c r="N2">
-        <v>2.47254733739241</v>
+        <v>7.553265</v>
       </c>
       <c r="O2">
-        <v>0.2565755642832794</v>
+        <v>0.2504376744648922</v>
       </c>
       <c r="P2">
-        <v>0.2565755642832794</v>
+        <v>0.286629885116792</v>
       </c>
       <c r="Q2">
-        <v>2.352944218220791</v>
+        <v>2.845261213393333</v>
       </c>
       <c r="R2">
-        <v>2.352944218220791</v>
+        <v>25.60735092054</v>
       </c>
       <c r="S2">
-        <v>0.002402239640689911</v>
+        <v>0.002327564889646676</v>
       </c>
       <c r="T2">
-        <v>0.002402239640689911</v>
+        <v>0.002680203540500799</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.951627571548234</v>
+        <v>1.130078666666667</v>
       </c>
       <c r="H3">
-        <v>0.951627571548234</v>
+        <v>3.390236</v>
       </c>
       <c r="I3">
-        <v>0.009362698460394505</v>
+        <v>0.009293988592650694</v>
       </c>
       <c r="J3">
-        <v>0.009362698460394505</v>
+        <v>0.009350747007447273</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.38875992503424</v>
+        <v>3.687724</v>
       </c>
       <c r="N3">
-        <v>3.38875992503424</v>
+        <v>11.063172</v>
       </c>
       <c r="O3">
-        <v>0.3516506951503644</v>
+        <v>0.3668129038085001</v>
       </c>
       <c r="P3">
-        <v>0.3516506951503644</v>
+        <v>0.4198231783721755</v>
       </c>
       <c r="Q3">
-        <v>3.224837378020309</v>
+        <v>4.167418220954667</v>
       </c>
       <c r="R3">
-        <v>3.224837378020309</v>
+        <v>37.506763988592</v>
       </c>
       <c r="S3">
-        <v>0.003292399422080974</v>
+        <v>0.003409154943633276</v>
       </c>
       <c r="T3">
-        <v>0.003292399422080974</v>
+        <v>0.003925660328820623</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.951627571548234</v>
+        <v>1.130078666666667</v>
       </c>
       <c r="H4">
-        <v>0.951627571548234</v>
+        <v>3.390236</v>
       </c>
       <c r="I4">
-        <v>0.009362698460394505</v>
+        <v>0.009293988592650694</v>
       </c>
       <c r="J4">
-        <v>0.009362698460394505</v>
+        <v>0.009350747007447273</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>3.77541455205809</v>
+        <v>3.7E-05</v>
       </c>
       <c r="N4">
-        <v>3.77541455205809</v>
+        <v>0.000111</v>
       </c>
       <c r="O4">
-        <v>0.3917737405663562</v>
+        <v>3.680339808758602E-06</v>
       </c>
       <c r="P4">
-        <v>0.3917737405663562</v>
+        <v>4.212207204164545E-06</v>
       </c>
       <c r="Q4">
-        <v>3.592788581762904</v>
+        <v>4.181291066666667E-05</v>
       </c>
       <c r="R4">
-        <v>3.592788581762904</v>
+        <v>0.000376316196</v>
       </c>
       <c r="S4">
-        <v>0.003668059397623619</v>
+        <v>3.420503619968068E-08</v>
       </c>
       <c r="T4">
-        <v>0.003668059397623619</v>
+        <v>3.938728390908947E-08</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>49.8163577302768</v>
+        <v>1.130078666666667</v>
       </c>
       <c r="H5">
-        <v>49.8163577302768</v>
+        <v>3.390236</v>
       </c>
       <c r="I5">
-        <v>0.4901240251634342</v>
+        <v>0.009293988592650694</v>
       </c>
       <c r="J5">
-        <v>0.4901240251634342</v>
+        <v>0.009350747007447273</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>2.47254733739241</v>
+        <v>0.039625</v>
       </c>
       <c r="N5">
-        <v>2.47254733739241</v>
+        <v>0.118875</v>
       </c>
       <c r="O5">
-        <v>0.2565755642832794</v>
+        <v>0.003941444997893503</v>
       </c>
       <c r="P5">
-        <v>0.2565755642832794</v>
+        <v>0.004511046228784328</v>
       </c>
       <c r="Q5">
-        <v>123.1733026645837</v>
+        <v>0.04477936716666667</v>
       </c>
       <c r="R5">
-        <v>123.1733026645837</v>
+        <v>0.4030143045</v>
       </c>
       <c r="S5">
-        <v>0.1257538483251004</v>
+        <v>3.663174484898235E-05</v>
       </c>
       <c r="T5">
-        <v>0.1257538483251004</v>
+        <v>4.218165202426136E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>49.8163577302768</v>
+        <v>1.130078666666667</v>
       </c>
       <c r="H6">
-        <v>49.8163577302768</v>
+        <v>3.390236</v>
       </c>
       <c r="I6">
-        <v>0.4901240251634342</v>
+        <v>0.009293988592650694</v>
       </c>
       <c r="J6">
-        <v>0.4901240251634342</v>
+        <v>0.009350747007447273</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.38875992503424</v>
+        <v>3.8082785</v>
       </c>
       <c r="N6">
-        <v>3.38875992503424</v>
+        <v>7.616557</v>
       </c>
       <c r="O6">
-        <v>0.3516506951503644</v>
+        <v>0.3788042963889053</v>
       </c>
       <c r="P6">
-        <v>0.3516506951503644</v>
+        <v>0.2890316780750441</v>
       </c>
       <c r="Q6">
-        <v>168.8156766875317</v>
+        <v>4.303654289575333</v>
       </c>
       <c r="R6">
-        <v>168.8156766875317</v>
+        <v>25.821925737452</v>
       </c>
       <c r="S6">
-        <v>0.1723524541586163</v>
+        <v>0.003520602809485558</v>
       </c>
       <c r="T6">
-        <v>0.1723524541586163</v>
+        <v>0.002702662098817682</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,433 +835,1239 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>49.8163577302768</v>
+        <v>1.004357666666667</v>
       </c>
       <c r="H7">
-        <v>49.8163577302768</v>
+        <v>3.013073</v>
       </c>
       <c r="I7">
-        <v>0.4901240251634342</v>
+        <v>0.008260034431474328</v>
       </c>
       <c r="J7">
-        <v>0.4901240251634342</v>
+        <v>0.008310478485264795</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.77541455205809</v>
+        <v>2.517755</v>
       </c>
       <c r="N7">
-        <v>3.77541455205809</v>
+        <v>7.553265</v>
       </c>
       <c r="O7">
-        <v>0.3917737405663562</v>
+        <v>0.2504376744648922</v>
       </c>
       <c r="P7">
-        <v>0.3917737405663562</v>
+        <v>0.286629885116792</v>
       </c>
       <c r="Q7">
-        <v>188.0774019054186</v>
+        <v>2.528726537038333</v>
       </c>
       <c r="R7">
-        <v>188.0774019054186</v>
+        <v>22.758538833345</v>
       </c>
       <c r="S7">
-        <v>0.1920177226797175</v>
+        <v>0.002068623814018369</v>
       </c>
       <c r="T7">
-        <v>0.1920177226797175</v>
+        <v>0.00238203149349702</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>48.9181296778954</v>
+        <v>1.004357666666667</v>
       </c>
       <c r="H8">
-        <v>48.9181296778954</v>
+        <v>3.013073</v>
       </c>
       <c r="I8">
-        <v>0.4812867040784302</v>
+        <v>0.008260034431474328</v>
       </c>
       <c r="J8">
-        <v>0.4812867040784302</v>
+        <v>0.008310478485264795</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.47254733739241</v>
+        <v>3.687724</v>
       </c>
       <c r="N8">
-        <v>2.47254733739241</v>
+        <v>11.063172</v>
       </c>
       <c r="O8">
-        <v>0.2565755642832794</v>
+        <v>0.3668129038085001</v>
       </c>
       <c r="P8">
-        <v>0.2565755642832794</v>
+        <v>0.4198231783721755</v>
       </c>
       <c r="Q8">
-        <v>120.9523912852969</v>
+        <v>3.703793871950666</v>
       </c>
       <c r="R8">
-        <v>120.9523912852969</v>
+        <v>33.334144847556</v>
       </c>
       <c r="S8">
-        <v>0.1234864076809629</v>
+        <v>0.003029887215367291</v>
       </c>
       <c r="T8">
-        <v>0.1234864076809629</v>
+        <v>0.003488931491477449</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>48.9181296778954</v>
+        <v>1.004357666666667</v>
       </c>
       <c r="H9">
-        <v>48.9181296778954</v>
+        <v>3.013073</v>
       </c>
       <c r="I9">
-        <v>0.4812867040784302</v>
+        <v>0.008260034431474328</v>
       </c>
       <c r="J9">
-        <v>0.4812867040784302</v>
+        <v>0.008310478485264795</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>3.38875992503424</v>
+        <v>3.7E-05</v>
       </c>
       <c r="N9">
-        <v>3.38875992503424</v>
+        <v>0.000111</v>
       </c>
       <c r="O9">
-        <v>0.3516506951503644</v>
+        <v>3.680339808758602E-06</v>
       </c>
       <c r="P9">
-        <v>0.3516506951503644</v>
+        <v>4.212207204164545E-06</v>
       </c>
       <c r="Q9">
-        <v>165.7717974600801</v>
+        <v>3.716123366666667E-05</v>
       </c>
       <c r="R9">
-        <v>165.7717974600801</v>
+        <v>0.000334451103</v>
       </c>
       <c r="S9">
-        <v>0.1692448040558077</v>
+        <v>3.039973353987169E-08</v>
       </c>
       <c r="T9">
-        <v>0.1692448040558077</v>
+        <v>3.500545734568682E-08</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>48.9181296778954</v>
+        <v>1.004357666666667</v>
       </c>
       <c r="H10">
-        <v>48.9181296778954</v>
+        <v>3.013073</v>
       </c>
       <c r="I10">
-        <v>0.4812867040784302</v>
+        <v>0.008260034431474328</v>
       </c>
       <c r="J10">
-        <v>0.4812867040784302</v>
+        <v>0.008310478485264795</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>3.77541455205809</v>
+        <v>0.039625</v>
       </c>
       <c r="N10">
-        <v>3.77541455205809</v>
+        <v>0.118875</v>
       </c>
       <c r="O10">
-        <v>0.3917737405663562</v>
+        <v>0.003941444997893503</v>
       </c>
       <c r="P10">
-        <v>0.3917737405663562</v>
+        <v>0.004511046228784328</v>
       </c>
       <c r="Q10">
-        <v>184.686218645391</v>
+        <v>0.03979767254166667</v>
       </c>
       <c r="R10">
-        <v>184.686218645391</v>
+        <v>0.358179052875</v>
       </c>
       <c r="S10">
-        <v>0.1885554923416595</v>
+        <v>3.255647139236259E-05</v>
       </c>
       <c r="T10">
-        <v>0.1885554923416595</v>
+        <v>3.748895263034705E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.95419476364563</v>
+        <v>1.004357666666667</v>
       </c>
       <c r="H11">
-        <v>1.95419476364563</v>
+        <v>3.013073</v>
       </c>
       <c r="I11">
-        <v>0.01922657229774113</v>
+        <v>0.008260034431474328</v>
       </c>
       <c r="J11">
-        <v>0.01922657229774113</v>
+        <v>0.008310478485264795</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.47254733739241</v>
+        <v>3.8082785</v>
       </c>
       <c r="N11">
-        <v>2.47254733739241</v>
+        <v>7.616557</v>
       </c>
       <c r="O11">
-        <v>0.2565755642832794</v>
+        <v>0.3788042963889053</v>
       </c>
       <c r="P11">
-        <v>0.2565755642832794</v>
+        <v>0.2890316780750441</v>
       </c>
       <c r="Q11">
-        <v>4.831839059598193</v>
+        <v>3.824873708276834</v>
       </c>
       <c r="R11">
-        <v>4.831839059598193</v>
+        <v>22.949242249661</v>
       </c>
       <c r="S11">
-        <v>0.004933068636526198</v>
+        <v>0.003128936530962764</v>
       </c>
       <c r="T11">
-        <v>0.004933068636526198</v>
+        <v>0.002401991542202634</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.95419476364563</v>
+        <v>68.17555033333333</v>
       </c>
       <c r="H12">
-        <v>1.95419476364563</v>
+        <v>204.526651</v>
       </c>
       <c r="I12">
-        <v>0.01922657229774113</v>
+        <v>0.5606890969499024</v>
       </c>
       <c r="J12">
-        <v>0.01922657229774113</v>
+        <v>0.5641132268613344</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.38875992503424</v>
+        <v>2.517755</v>
       </c>
       <c r="N12">
-        <v>3.38875992503424</v>
+        <v>7.553265</v>
       </c>
       <c r="O12">
-        <v>0.3516506951503644</v>
+        <v>0.2504376744648922</v>
       </c>
       <c r="P12">
-        <v>0.3516506951503644</v>
+        <v>0.286629885116792</v>
       </c>
       <c r="Q12">
-        <v>6.62229690075407</v>
+        <v>171.6493327295017</v>
       </c>
       <c r="R12">
-        <v>6.62229690075407</v>
+        <v>1544.843994565515</v>
       </c>
       <c r="S12">
-        <v>0.006761037513859407</v>
+        <v>0.1404176735379541</v>
       </c>
       <c r="T12">
-        <v>0.006761037513859407</v>
+        <v>0.1616917094081271</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>68.17555033333333</v>
+      </c>
+      <c r="H13">
+        <v>204.526651</v>
+      </c>
+      <c r="I13">
+        <v>0.5606890969499024</v>
+      </c>
+      <c r="J13">
+        <v>0.5641132268613344</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.687724</v>
+      </c>
+      <c r="N13">
+        <v>11.063172</v>
+      </c>
+      <c r="O13">
+        <v>0.3668129038085001</v>
+      </c>
+      <c r="P13">
+        <v>0.4198231783721755</v>
+      </c>
+      <c r="Q13">
+        <v>251.4126131774413</v>
+      </c>
+      <c r="R13">
+        <v>2262.713518596972</v>
+      </c>
+      <c r="S13">
+        <v>0.2056679957859594</v>
+      </c>
+      <c r="T13">
+        <v>0.2368278078627095</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>68.17555033333333</v>
+      </c>
+      <c r="H14">
+        <v>204.526651</v>
+      </c>
+      <c r="I14">
+        <v>0.5606890969499024</v>
+      </c>
+      <c r="J14">
+        <v>0.5641132268613344</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>3.7E-05</v>
+      </c>
+      <c r="N14">
+        <v>0.000111</v>
+      </c>
+      <c r="O14">
+        <v>3.680339808758602E-06</v>
+      </c>
+      <c r="P14">
+        <v>4.212207204164545E-06</v>
+      </c>
+      <c r="Q14">
+        <v>0.002522495362333333</v>
+      </c>
+      <c r="R14">
+        <v>0.022702458261</v>
+      </c>
+      <c r="S14">
+        <v>2.063526403841637E-06</v>
+      </c>
+      <c r="T14">
+        <v>2.376161798149821E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>68.17555033333333</v>
+      </c>
+      <c r="H15">
+        <v>204.526651</v>
+      </c>
+      <c r="I15">
+        <v>0.5606890969499024</v>
+      </c>
+      <c r="J15">
+        <v>0.5641132268613344</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.039625</v>
+      </c>
+      <c r="N15">
+        <v>0.118875</v>
+      </c>
+      <c r="O15">
+        <v>0.003941444997893503</v>
+      </c>
+      <c r="P15">
+        <v>0.004511046228784328</v>
+      </c>
+      <c r="Q15">
+        <v>2.701456181958334</v>
+      </c>
+      <c r="R15">
+        <v>24.313105637625</v>
+      </c>
+      <c r="S15">
+        <v>0.002209925236546618</v>
+      </c>
+      <c r="T15">
+        <v>0.00254474084464018</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>68.17555033333333</v>
+      </c>
+      <c r="H16">
+        <v>204.526651</v>
+      </c>
+      <c r="I16">
+        <v>0.5606890969499024</v>
+      </c>
+      <c r="J16">
+        <v>0.5641132268613344</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.8082785</v>
+      </c>
+      <c r="N16">
+        <v>7.616557</v>
+      </c>
+      <c r="O16">
+        <v>0.3788042963889053</v>
+      </c>
+      <c r="P16">
+        <v>0.2890316780750441</v>
+      </c>
+      <c r="Q16">
+        <v>259.6314825601012</v>
+      </c>
+      <c r="R16">
+        <v>1557.788895360607</v>
+      </c>
+      <c r="S16">
+        <v>0.2123914388630385</v>
+      </c>
+      <c r="T16">
+        <v>0.1630465925840595</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.95419476364563</v>
-      </c>
-      <c r="H13">
-        <v>1.95419476364563</v>
-      </c>
-      <c r="I13">
-        <v>0.01922657229774113</v>
-      </c>
-      <c r="J13">
-        <v>0.01922657229774113</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>3.77541455205809</v>
-      </c>
-      <c r="N13">
-        <v>3.77541455205809</v>
-      </c>
-      <c r="O13">
-        <v>0.3917737405663562</v>
-      </c>
-      <c r="P13">
-        <v>0.3917737405663562</v>
-      </c>
-      <c r="Q13">
-        <v>7.377895348223431</v>
-      </c>
-      <c r="R13">
-        <v>7.377895348223431</v>
-      </c>
-      <c r="S13">
-        <v>0.007532466147355524</v>
-      </c>
-      <c r="T13">
-        <v>0.007532466147355524</v>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>49.06827033333334</v>
+      </c>
+      <c r="H17">
+        <v>147.204811</v>
+      </c>
+      <c r="I17">
+        <v>0.4035470787925388</v>
+      </c>
+      <c r="J17">
+        <v>0.4060115419516788</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.517755</v>
+      </c>
+      <c r="N17">
+        <v>7.553265</v>
+      </c>
+      <c r="O17">
+        <v>0.2504376744648922</v>
+      </c>
+      <c r="P17">
+        <v>0.286629885116792</v>
+      </c>
+      <c r="Q17">
+        <v>123.5418829731017</v>
+      </c>
+      <c r="R17">
+        <v>1111.876946757915</v>
+      </c>
+      <c r="S17">
+        <v>0.101063391949904</v>
+      </c>
+      <c r="T17">
+        <v>0.1163750416257013</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>49.06827033333334</v>
+      </c>
+      <c r="H18">
+        <v>147.204811</v>
+      </c>
+      <c r="I18">
+        <v>0.4035470787925388</v>
+      </c>
+      <c r="J18">
+        <v>0.4060115419516788</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>3.687724</v>
+      </c>
+      <c r="N18">
+        <v>11.063172</v>
+      </c>
+      <c r="O18">
+        <v>0.3668129038085001</v>
+      </c>
+      <c r="P18">
+        <v>0.4198231783721755</v>
+      </c>
+      <c r="Q18">
+        <v>180.9502381467213</v>
+      </c>
+      <c r="R18">
+        <v>1628.552143320492</v>
+      </c>
+      <c r="S18">
+        <v>0.1480262757953287</v>
+      </c>
+      <c r="T18">
+        <v>0.1704530559979416</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>49.06827033333334</v>
+      </c>
+      <c r="H19">
+        <v>147.204811</v>
+      </c>
+      <c r="I19">
+        <v>0.4035470787925388</v>
+      </c>
+      <c r="J19">
+        <v>0.4060115419516788</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>3.7E-05</v>
+      </c>
+      <c r="N19">
+        <v>0.000111</v>
+      </c>
+      <c r="O19">
+        <v>3.680339808758602E-06</v>
+      </c>
+      <c r="P19">
+        <v>4.212207204164545E-06</v>
+      </c>
+      <c r="Q19">
+        <v>0.001815526002333333</v>
+      </c>
+      <c r="R19">
+        <v>0.016339734021</v>
+      </c>
+      <c r="S19">
+        <v>1.485190378788424E-06</v>
+      </c>
+      <c r="T19">
+        <v>1.710204741982817E-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>49.06827033333334</v>
+      </c>
+      <c r="H20">
+        <v>147.204811</v>
+      </c>
+      <c r="I20">
+        <v>0.4035470787925388</v>
+      </c>
+      <c r="J20">
+        <v>0.4060115419516788</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.039625</v>
+      </c>
+      <c r="N20">
+        <v>0.118875</v>
+      </c>
+      <c r="O20">
+        <v>0.003941444997893503</v>
+      </c>
+      <c r="P20">
+        <v>0.004511046228784328</v>
+      </c>
+      <c r="Q20">
+        <v>1.944330211958333</v>
+      </c>
+      <c r="R20">
+        <v>17.498971907625</v>
+      </c>
+      <c r="S20">
+        <v>0.001590558615121387</v>
+      </c>
+      <c r="T20">
+        <v>0.00183153683516403</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>49.06827033333334</v>
+      </c>
+      <c r="H21">
+        <v>147.204811</v>
+      </c>
+      <c r="I21">
+        <v>0.4035470787925388</v>
+      </c>
+      <c r="J21">
+        <v>0.4060115419516788</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.8082785</v>
+      </c>
+      <c r="N21">
+        <v>7.616557</v>
+      </c>
+      <c r="O21">
+        <v>0.3788042963889053</v>
+      </c>
+      <c r="P21">
+        <v>0.2890316780750441</v>
+      </c>
+      <c r="Q21">
+        <v>186.8656389426212</v>
+      </c>
+      <c r="R21">
+        <v>1121.193833655727</v>
+      </c>
+      <c r="S21">
+        <v>0.1528653672418058</v>
+      </c>
+      <c r="T21">
+        <v>0.1173501972881299</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.214174</v>
+      </c>
+      <c r="H22">
+        <v>4.428348</v>
+      </c>
+      <c r="I22">
+        <v>0.01820980123343368</v>
+      </c>
+      <c r="J22">
+        <v>0.01221400569427471</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.517755</v>
+      </c>
+      <c r="N22">
+        <v>7.553265</v>
+      </c>
+      <c r="O22">
+        <v>0.2504376744648922</v>
+      </c>
+      <c r="P22">
+        <v>0.286629885116792</v>
+      </c>
+      <c r="Q22">
+        <v>5.574747659369999</v>
+      </c>
+      <c r="R22">
+        <v>33.44848595622</v>
+      </c>
+      <c r="S22">
+        <v>0.004560420273369057</v>
+      </c>
+      <c r="T22">
+        <v>0.003500899048965804</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.214174</v>
+      </c>
+      <c r="H23">
+        <v>4.428348</v>
+      </c>
+      <c r="I23">
+        <v>0.01820980123343368</v>
+      </c>
+      <c r="J23">
+        <v>0.01221400569427471</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>3.687724</v>
+      </c>
+      <c r="N23">
+        <v>11.063172</v>
+      </c>
+      <c r="O23">
+        <v>0.3668129038085001</v>
+      </c>
+      <c r="P23">
+        <v>0.4198231783721755</v>
+      </c>
+      <c r="Q23">
+        <v>8.165262599976</v>
+      </c>
+      <c r="R23">
+        <v>48.991575599856</v>
+      </c>
+      <c r="S23">
+        <v>0.006679590068211416</v>
+      </c>
+      <c r="T23">
+        <v>0.005127722691226259</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2.214174</v>
+      </c>
+      <c r="H24">
+        <v>4.428348</v>
+      </c>
+      <c r="I24">
+        <v>0.01820980123343368</v>
+      </c>
+      <c r="J24">
+        <v>0.01221400569427471</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>3.7E-05</v>
+      </c>
+      <c r="N24">
+        <v>0.000111</v>
+      </c>
+      <c r="O24">
+        <v>3.680339808758602E-06</v>
+      </c>
+      <c r="P24">
+        <v>4.212207204164545E-06</v>
+      </c>
+      <c r="Q24">
+        <v>8.1924438E-05</v>
+      </c>
+      <c r="R24">
+        <v>0.000491546628</v>
+      </c>
+      <c r="S24">
+        <v>6.701825638898745E-08</v>
+      </c>
+      <c r="T24">
+        <v>5.144792277713071E-08</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.214174</v>
+      </c>
+      <c r="H25">
+        <v>4.428348</v>
+      </c>
+      <c r="I25">
+        <v>0.01820980123343368</v>
+      </c>
+      <c r="J25">
+        <v>0.01221400569427471</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.039625</v>
+      </c>
+      <c r="N25">
+        <v>0.118875</v>
+      </c>
+      <c r="O25">
+        <v>0.003941444997893503</v>
+      </c>
+      <c r="P25">
+        <v>0.004511046228784328</v>
+      </c>
+      <c r="Q25">
+        <v>0.08773664475</v>
+      </c>
+      <c r="R25">
+        <v>0.5264198685</v>
+      </c>
+      <c r="S25">
+        <v>7.177292998415211E-05</v>
+      </c>
+      <c r="T25">
+        <v>5.509794432550824E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2.214174</v>
+      </c>
+      <c r="H26">
+        <v>4.428348</v>
+      </c>
+      <c r="I26">
+        <v>0.01820980123343368</v>
+      </c>
+      <c r="J26">
+        <v>0.01221400569427471</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>3.8082785</v>
+      </c>
+      <c r="N26">
+        <v>7.616557</v>
+      </c>
+      <c r="O26">
+        <v>0.3788042963889053</v>
+      </c>
+      <c r="P26">
+        <v>0.2890316780750441</v>
+      </c>
+      <c r="Q26">
+        <v>8.432191239459</v>
+      </c>
+      <c r="R26">
+        <v>33.728764957836</v>
+      </c>
+      <c r="S26">
+        <v>0.006897950943612664</v>
+      </c>
+      <c r="T26">
+        <v>0.003530234561834363</v>
       </c>
     </row>
   </sheetData>
